--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454D7791-805D-42E5-87E3-EBF0CF317016}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Requisitos</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>Informações detalhadas sobre a empresa e a equipe envolvida no projeto</t>
+  </si>
+  <si>
+    <t>Criar um nome e uma logo para a nossa empresa</t>
+  </si>
+  <si>
+    <t>Configurar os arquivos do projeto na plataforma GitHub para consulta de ambos os integrantes do projeto</t>
+  </si>
+  <si>
+    <t>Configurar a plataforma Trello com todos os requisitos listados neste documento</t>
+  </si>
+  <si>
+    <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
   </si>
 </sst>
 </file>
@@ -639,10 +651,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,69 +718,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Bahnschrift SemiBold"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -833,6 +824,27 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift SemiBold"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -847,11 +859,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48EDCA0-1419-4C03-8F1F-E69B627A101C}" name="Tabela1" displayName="Tabela1" ref="B5:D36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48EDCA0-1419-4C03-8F1F-E69B627A101C}" name="Tabela1" displayName="Tabela1" ref="B5:D36" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F731BCF5-C1A6-4840-BDD7-59EFC456CADD}" name="Requisitos" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{38FAF41B-1B07-4679-B026-8BD81B8CB94A}" name="Descrição" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{56C75CFF-2AF9-4AB5-B00E-C759F6105447}" name="Classificação" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F731BCF5-C1A6-4840-BDD7-59EFC456CADD}" name="Requisitos" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{38FAF41B-1B07-4679-B026-8BD81B8CB94A}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{56C75CFF-2AF9-4AB5-B00E-C759F6105447}" name="Classificação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1156,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FD109-3D9A-4AE1-8EA0-06CF9B9B004E}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1169,32 +1181,32 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="7"/>
@@ -1543,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,147 +1570,148 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="D12" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D15" s="11" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
+      <c r="B17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1706,7 +1719,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{454D7791-805D-42E5-87E3-EBF0CF317016}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50240E7-6F3E-47B8-BA63-C0DDA270791D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>Requisitos</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Requisitos do site</t>
   </si>
   <si>
-    <t>Página Sobre Nós</t>
-  </si>
-  <si>
     <t>Sessão Início</t>
   </si>
   <si>
@@ -289,6 +286,48 @@
   </si>
   <si>
     <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
+  </si>
+  <si>
+    <t>Diagrama do projeto</t>
+  </si>
+  <si>
+    <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao clente</t>
+  </si>
+  <si>
+    <t>Criar um banco de dados na ferramente MySQP para armazenar informações do cliente e dos sensores</t>
+  </si>
+  <si>
+    <t>Sessão Sobre Nós</t>
+  </si>
+  <si>
+    <t>Sessão Simulador</t>
+  </si>
+  <si>
+    <t>Sessão Login</t>
+  </si>
+  <si>
+    <t>Sessão Cadastro</t>
+  </si>
+  <si>
+    <t>Sessão Recuperação de senha</t>
+  </si>
+  <si>
+    <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coletar informações do nosso cliente </t>
+  </si>
+  <si>
+    <t>Cabeçalho</t>
+  </si>
+  <si>
+    <t>Rodapé</t>
   </si>
 </sst>
 </file>
@@ -856,6 +895,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FD109-3D9A-4AE1-8EA0-06CF9B9B004E}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1555,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1615,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>5</v>
@@ -1626,7 +1669,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -1637,7 +1680,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>5</v>
@@ -1647,7 +1690,9 @@
       <c r="B10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>5</v>
@@ -1674,44 +1719,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+    <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15" t="s">
+    <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D19" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1719,7 +1837,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50240E7-6F3E-47B8-BA63-C0DDA270791D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA563BD-E43B-41A8-920D-AD999AE76368}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>Nome e logo</t>
   </si>
   <si>
-    <t>Criação e configuração no GitHub</t>
-  </si>
-  <si>
     <t>Configurar ferramenta de gestão</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Rodapé</t>
+  </si>
+  <si>
+    <t>Criar e configurar no GitHub</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1658,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>5</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>5</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="9" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>5</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="10" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>5</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="11" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>5</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="12" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>5</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>5</v>
@@ -1733,7 +1733,7 @@
     <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="12" t="s">
@@ -1760,10 +1760,10 @@
     </row>
     <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>5</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>5</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>5</v>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
@@ -1804,30 +1804,30 @@
     </row>
     <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>5</v>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="61" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA563BD-E43B-41A8-920D-AD999AE76368}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA563BD-E43B-41A8-920D-AD999AE76368}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B00AD3-172D-4FB6-BBDF-40C5B255D44F}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>Requisitos</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Criar e configurar no GitHub</t>
+  </si>
+  <si>
+    <t>Site institucional</t>
+  </si>
+  <si>
+    <t>Criar um site institucional a partir dos protótipos selecionados</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FD109-3D9A-4AE1-8EA0-06CF9B9B004E}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1598,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1730,106 +1736,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+    <row r="14" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
+    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="D20" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
+      <c r="D21" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="19" t="s">
+    <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+    <row r="25" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1837,7 +1854,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive - SPTech School\sprint2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{48AD1296-41AC-4F5B-AF53-8A1D6C51A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85B00AD3-172D-4FB6-BBDF-40C5B255D44F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Requisitos</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Sessão Sobre Nós</t>
   </si>
   <si>
-    <t>Sessão Simulador</t>
-  </si>
-  <si>
     <t>Sessão Login</t>
   </si>
   <si>
@@ -334,6 +331,33 @@
   </si>
   <si>
     <t>Criar um site institucional a partir dos protótipos selecionados</t>
+  </si>
+  <si>
+    <t>Sessão Calculadora</t>
+  </si>
+  <si>
+    <t>Sessão Simulação</t>
+  </si>
+  <si>
+    <t>Sessão Serviços</t>
+  </si>
+  <si>
+    <t>Sessão Fale Conosco</t>
+  </si>
+  <si>
+    <t>Barra de navegação com links de redirecionamento para todas as sessões do site através de botões</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Simulação do funcionamento dos nossos serviços, utilizando dados fictícios, com campos de endereço</t>
+  </si>
+  <si>
+    <t>Serviços de atendimento ao cliente</t>
+  </si>
+  <si>
+    <t>Recuperar uma senha esquecida</t>
   </si>
 </sst>
 </file>
@@ -901,10 +925,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1217,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FD109-3D9A-4AE1-8EA0-06CF9B9B004E}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,7 +1692,7 @@
     </row>
     <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>79</v>
@@ -1738,123 +1758,195 @@
     </row>
     <row r="14" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+    <row r="15" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="2:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D24" s="14" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive - SPTech School\sprint2\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE11BBE-55FA-44A3-A92E-2C412DF3A4C6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>Requisitos</t>
   </si>
@@ -336,22 +336,10 @@
     <t>Sessão Calculadora</t>
   </si>
   <si>
-    <t>Sessão Simulação</t>
-  </si>
-  <si>
-    <t>Sessão Serviços</t>
-  </si>
-  <si>
     <t>Sessão Fale Conosco</t>
   </si>
   <si>
     <t>Barra de navegação com links de redirecionamento para todas as sessões do site através de botões</t>
-  </si>
-  <si>
-    <t>Desejável</t>
-  </si>
-  <si>
-    <t>Simulação do funcionamento dos nossos serviços, utilizando dados fictícios, com campos de endereço</t>
   </si>
   <si>
     <t>Serviços de atendimento ao cliente</t>
@@ -1624,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D33"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1815,7 +1803,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>5</v>
@@ -1855,19 +1843,19 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>103</v>
+      <c r="C26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>90</v>
@@ -1878,10 +1866,10 @@
     </row>
     <row r="28" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>5</v>
@@ -1889,18 +1877,18 @@
     </row>
     <row r="29" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>92</v>
@@ -1911,34 +1899,12 @@
     </row>
     <row r="31" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="17" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
     </row>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Sprint2/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE11BBE-55FA-44A3-A92E-2C412DF3A4C6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA2BBA8-F2FB-40A0-9BB9-2D9F1DC7F982}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>Requisitos</t>
   </si>
@@ -346,6 +342,18 @@
   </si>
   <si>
     <t>Recuperar uma senha esquecida</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Tamanho(#)</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
 </sst>
 </file>
@@ -413,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -553,39 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,91 +579,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -686,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -710,71 +633,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,34 +1158,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1197,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1334,14 +1263,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1451,14 +1380,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1480,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1491,14 +1420,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1520,7 +1449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1531,7 +1460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1542,7 +1471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1553,7 +1482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -1564,7 +1493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1575,7 +1504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
@@ -1612,308 +1541,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B1:D31"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="8" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="E5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+      <c r="D14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" ht="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="2:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="9" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="E21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="D22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="19" t="s">
+      <c r="D23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="D24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="D25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="D26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="D27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
+      <c r="D28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="17" t="s">
+      <c r="D30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="31" t="s">
         <v>57</v>
       </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B2:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Sprint2/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA2BBA8-F2FB-40A0-9BB9-2D9F1DC7F982}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B12569C-190D-42D3-A137-3612296A0CF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>Requisitos</t>
   </si>
@@ -354,13 +354,22 @@
   </si>
   <si>
     <t>Sprint</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos do Site </t>
+  </si>
+  <si>
+    <t>Geral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +409,21 @@
       <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +440,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -609,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -633,6 +661,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,56 +718,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,23 +1222,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1541,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B2:J31"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,414 +1608,442 @@
     <col min="3" max="3" width="53.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="39">
+        <f>SUM(F6:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <f>SUM(F22:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="41">
+        <f>SUM(J8:K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="D9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="D13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="D14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="27"/>
+      <c r="D22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="29"/>
+      <c r="D23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="27"/>
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="29"/>
+      <c r="D25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="27"/>
+      <c r="D26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="29"/>
+      <c r="D27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="27"/>
+      <c r="D28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="29"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="27"/>
+      <c r="D30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Sprint2/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B12569C-190D-42D3-A137-3612296A0CF0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F7FA13-E29B-43A5-977E-DBCD1B1FF3E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -449,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -633,6 +633,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -697,6 +734,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,31 +788,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,23 +1259,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1599,7 +1636,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,35 +1651,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1681,11 +1718,11 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34" t="s">
+      <c r="J6" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -1701,13 +1738,13 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="23" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1725,15 +1762,15 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="39">
+      <c r="J8" s="24">
         <f>SUM(F6:F16)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="25">
         <f>SUM(F22:F31)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="26">
         <f>SUM(J8:K8)</f>
         <v>0</v>
       </c>
@@ -1862,15 +1899,15 @@
     <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -2046,10 +2083,11 @@
       <c r="H31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B2:H3"/>
+    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Sprint2/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F7FA13-E29B-43A5-977E-DBCD1B1FF3E2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E07D051-69A4-4F4A-BACB-2288EB9B11AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Requisitos</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Criar um código onde será feita a captura de dados do sensor de bloqueio e inclui-los em um gráfico</t>
   </si>
   <si>
-    <t>Requisitos do site</t>
-  </si>
-  <si>
     <t>Sessão Início</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
     <t>Criar e configurar no GitHub</t>
   </si>
   <si>
-    <t>Site institucional</t>
-  </si>
-  <si>
-    <t>Criar um site institucional a partir dos protótipos selecionados</t>
-  </si>
-  <si>
     <t>Sessão Calculadora</t>
   </si>
   <si>
@@ -363,6 +354,39 @@
   </si>
   <si>
     <t>Geral</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código da calculadora </t>
+  </si>
+  <si>
+    <t>Desenvolvimento da lógica e do código da calculadora</t>
+  </si>
+  <si>
+    <t>lógica do Login</t>
+  </si>
+  <si>
+    <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lógica do cadastro </t>
+  </si>
+  <si>
+    <t>Coletar e validar as informações cadastrais e gravar no banco de dados</t>
   </si>
 </sst>
 </file>
@@ -444,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -707,33 +731,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,6 +740,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,51 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,23 +1247,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1633,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,35 +1639,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1692,16 +1680,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1714,65 +1702,79 @@
       <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="10">
+        <v>13</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="J6" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
+      <c r="J6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
       <c r="H7" s="11"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>109</v>
+      <c r="K7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="24">
-        <f>SUM(F6:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
-        <f>SUM(F22:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
+      <c r="J8" s="27">
+        <f>SUM(F8:F16)</f>
+        <v>99</v>
+      </c>
+      <c r="K8" s="28">
+        <f>SUM(F18:F27)</f>
+        <v>82</v>
+      </c>
+      <c r="L8" s="29">
         <f>SUM(J8:K8)</f>
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,13 +1782,17 @@
         <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
@@ -1795,13 +1801,17 @@
         <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="10">
+        <v>13</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
@@ -1810,14 +1820,20 @@
         <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,261 +1846,302 @@
       <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="10">
+        <v>13</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="11">
+        <v>8</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="10">
+        <v>21</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="11">
+        <v>13</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="10">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
     <row r="20" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="10">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>106</v>
-      </c>
+      <c r="B21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="11">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="11">
+        <v>8</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11">
+        <v>3</v>
+      </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>99</v>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="10">
+        <v>13</v>
+      </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>86</v>
+      <c r="B27" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="11">
+        <v>13</v>
+      </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B20:H20"/>
+  <mergeCells count="3">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="J6:L6"/>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Sprint2/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E07D051-69A4-4F4A-BACB-2288EB9B11AF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{F7D1B04D-B3ED-4B34-9640-7573DB81BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0153686B-BB35-4CE3-AE9F-E810496EEE83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Pontuação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Requisitos do Site </t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>Coletar e validar as informações cadastrais e gravar no banco de dados</t>
+  </si>
+  <si>
+    <t>Pontuação Geral</t>
   </si>
 </sst>
 </file>
@@ -740,6 +740,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,15 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,23 +1247,23 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,35 +1639,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1703,18 +1703,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="10">
         <v>13</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="J6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -1727,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
@@ -1740,10 +1740,10 @@
         <v>64</v>
       </c>
       <c r="K7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,24 +1757,24 @@
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="J8" s="27">
-        <f>SUM(F8:F16)</f>
-        <v>99</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="J8" s="15">
+        <f>SUM(F6:F16)</f>
+        <v>115</v>
+      </c>
+      <c r="K8" s="16">
         <f>SUM(F18:F27)</f>
         <v>82</v>
       </c>
-      <c r="L8" s="29">
-        <f>SUM(J8:K8)</f>
-        <v>181</v>
+      <c r="L8" s="17">
+        <f>SUM(F6:F27)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="10">
         <v>13</v>
@@ -1826,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="11">
         <v>13</v>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="10">
         <v>13</v>
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="11">
         <v>8</v>
@@ -1885,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="10">
         <v>21</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="15" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="11">
         <v>13</v>
@@ -1914,16 +1914,16 @@
     </row>
     <row r="16" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="10">
         <v>8</v>
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="11">
         <v>3</v>
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="10">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="11">
         <v>5</v>
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="10">
         <v>13</v>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="11">
         <v>8</v>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -2056,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="11">
         <v>8</v>
@@ -2075,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="10">
         <v>3</v>
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="11">
         <v>3</v>
@@ -2113,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="10">
         <v>13</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="27" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="11">
         <v>13</v>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C067A0-43DF-4F56-938F-E74277F344D1}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F8F437-517E-4B3D-B006-822549F8262A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 2 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 2 velho" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1792,6 +1792,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
+  <dimension ref="A2:J56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <f>SUM(F6:F36)</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>27</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="10">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="11">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="10">
+        <v>8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>21</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="11">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11">
+        <v>22</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="10">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="11">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="10">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="11">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11">
+        <v>25</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="10">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10">
+        <v>8</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="11">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11">
+        <v>29</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="10">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10">
+        <v>29</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="10">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10">
+        <v>13</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="11">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="10">
+        <v>13</v>
+      </c>
+      <c r="G31" s="10">
+        <v>14</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="11">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11">
+        <v>24</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="10">
+        <v>13</v>
+      </c>
+      <c r="G33" s="10">
+        <v>20</v>
+      </c>
+      <c r="H33" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="11">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="11">
+        <v>21</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="10">
+        <v>21</v>
+      </c>
+      <c r="G36" s="10">
+        <v>24</v>
+      </c>
+      <c r="H36" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
   <dimension ref="A2:L54"/>
   <sheetViews>
@@ -2750,1000 +3746,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
-  <dimension ref="A2:J56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>9</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <f>SUM(F6:F36)</f>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10">
-        <v>18</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11">
-        <v>19</v>
-      </c>
-      <c r="H9" s="11">
-        <v>2</v>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>28</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="11">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>26</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>27</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="10">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="11">
-        <v>8</v>
-      </c>
-      <c r="G17" s="11">
-        <v>10</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2</v>
-      </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="10">
-        <v>8</v>
-      </c>
-      <c r="G18" s="10">
-        <v>12</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="11">
-        <v>8</v>
-      </c>
-      <c r="G19" s="11">
-        <v>17</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="10">
-        <v>8</v>
-      </c>
-      <c r="G20" s="10">
-        <v>21</v>
-      </c>
-      <c r="H20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="11">
-        <v>8</v>
-      </c>
-      <c r="G21" s="11">
-        <v>22</v>
-      </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="10">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10">
-        <v>7</v>
-      </c>
-      <c r="H22" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="11">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="10">
-        <v>13</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="11">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
-        <v>25</v>
-      </c>
-      <c r="H25" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="10">
-        <v>13</v>
-      </c>
-      <c r="G26" s="10">
-        <v>8</v>
-      </c>
-      <c r="H26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="11">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
-        <v>29</v>
-      </c>
-      <c r="H27" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="10">
-        <v>13</v>
-      </c>
-      <c r="G28" s="10">
-        <v>29</v>
-      </c>
-      <c r="H28" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="11">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="10">
-        <v>13</v>
-      </c>
-      <c r="G30" s="10">
-        <v>13</v>
-      </c>
-      <c r="H30" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="11">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
-        <v>16</v>
-      </c>
-      <c r="H31" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="10">
-        <v>13</v>
-      </c>
-      <c r="G32" s="10">
-        <v>14</v>
-      </c>
-      <c r="H32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="11">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
-        <v>24</v>
-      </c>
-      <c r="H33" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="10">
-        <v>13</v>
-      </c>
-      <c r="G34" s="10">
-        <v>20</v>
-      </c>
-      <c r="H34" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="11">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
-        <v>23</v>
-      </c>
-      <c r="H35" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="10">
-        <v>21</v>
-      </c>
-      <c r="G36" s="10">
-        <v>24</v>
-      </c>
-      <c r="H36" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
-      <c r="B42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F8F437-517E-4B3D-B006-822549F8262A}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4A9A5D0-7B90-49E1-9B0E-21E11AE83953}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="169">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>Verificar e validar se os dados do novo usuário estão corretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validação e lógica Recuperação de senha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validação e lógica Login </t>
   </si>
 </sst>
 </file>
@@ -938,10 +944,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,10 +1096,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,13 +1797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
     <col min="3" max="3" width="53.7265625" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" customWidth="1"/>
     <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -1809,35 +1811,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
@@ -1913,8 +1915,8 @@
         <v>1</v>
       </c>
       <c r="J7" s="11">
-        <f>SUM(F6:F36)</f>
-        <v>301</v>
+        <f>SUM(F6:F42)</f>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2090,13 +2092,13 @@
     <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="11" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>81</v>
@@ -2104,93 +2106,80 @@
       <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="11">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2</v>
-      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F16" s="10">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10">
         <v>5</v>
       </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
       <c r="B18" s="10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F18" s="10">
-        <v>8</v>
-      </c>
-      <c r="G18" s="10">
-        <v>12</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -2202,22 +2191,22 @@
         <v>8</v>
       </c>
       <c r="G19" s="11">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H19" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23"/>
       <c r="B20" s="10" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>93</v>
@@ -2226,22 +2215,23 @@
         <v>8</v>
       </c>
       <c r="G20" s="10">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H20" s="10">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>93</v>
@@ -2250,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="11">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H21" s="11">
         <v>2</v>
@@ -2259,118 +2249,110 @@
     <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="10" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F22" s="10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22" s="10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H22" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="11" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F23" s="11">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F24" s="10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H24" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
       <c r="B25" s="11" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F25" s="11">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
-        <v>25</v>
-      </c>
-      <c r="H25" s="11">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F26" s="10">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G26" s="10">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H26" s="10">
         <v>2</v>
@@ -2379,37 +2361,33 @@
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
       <c r="B27" s="11" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F27" s="11">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
-        <v>29</v>
-      </c>
-      <c r="H27" s="11">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>72</v>
@@ -2418,7 +2396,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="10">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H28" s="10">
         <v>4</v>
@@ -2426,166 +2404,168 @@
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
-      <c r="B29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="11">
         <v>13</v>
       </c>
-      <c r="G29" s="10">
-        <v>13</v>
-      </c>
-      <c r="H29" s="10">
-        <v>2</v>
+      <c r="G29" s="11">
+        <v>6</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
-      <c r="B30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>13</v>
       </c>
-      <c r="G30" s="11">
-        <v>16</v>
-      </c>
-      <c r="H30" s="11">
-        <v>2</v>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="B31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="11">
         <v>13</v>
       </c>
-      <c r="G31" s="10">
-        <v>14</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="G31" s="11">
+        <v>25</v>
+      </c>
+      <c r="H31" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="11">
-        <v>24</v>
-      </c>
-      <c r="H32" s="11">
-        <v>3</v>
+      <c r="G32" s="10">
+        <v>8</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="11">
         <v>13</v>
       </c>
-      <c r="G33" s="10">
-        <v>20</v>
-      </c>
-      <c r="H33" s="10">
-        <v>3</v>
+      <c r="G33" s="11">
+        <v>29</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="B34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="11">
-        <v>23</v>
-      </c>
-      <c r="H34" s="11">
-        <v>2</v>
+      <c r="G34" s="10">
+        <v>29</v>
+      </c>
+      <c r="H34" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F35" s="11">
-        <v>21</v>
-      </c>
-      <c r="G35" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="G35" s="11">
+        <v>13</v>
+      </c>
       <c r="H35" s="11">
         <v>2</v>
       </c>
@@ -2593,124 +2573,170 @@
     <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="10" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F36" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G36" s="10">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H36" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="11">
+        <v>13</v>
+      </c>
+      <c r="G37" s="11">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2</v>
+      </c>
+    </row>
     <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="10">
+        <v>13</v>
+      </c>
+      <c r="G38" s="10">
+        <v>24</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="11">
+        <v>13</v>
+      </c>
+      <c r="G39" s="11">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="10">
+        <v>13</v>
+      </c>
+      <c r="G40" s="10">
+        <v>23</v>
+      </c>
+      <c r="H40" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="11" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="11">
+        <v>21</v>
+      </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="10" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
+        <v>7</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="10">
+        <v>21</v>
+      </c>
+      <c r="G42" s="10">
+        <v>24</v>
+      </c>
+      <c r="H42" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
@@ -2807,35 +2833,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4A9A5D0-7B90-49E1-9B0E-21E11AE83953}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9443B867-5D67-4F23-A704-9DD6FCC6EC33}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="174">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -545,6 +545,21 @@
   </si>
   <si>
     <t xml:space="preserve">Validação e lógica Login </t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2.2</t>
+  </si>
+  <si>
+    <t>Sprint 2.3</t>
+  </si>
+  <si>
+    <t>Sprint 2.4</t>
+  </si>
+  <si>
+    <t>Inicial</t>
   </si>
 </sst>
 </file>
@@ -854,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -958,6 +973,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,6 +1114,1041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$J$9:$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Inicial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 2.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 2.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20F0-43C7-88F9-D592319481F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1592789407"/>
+        <c:axId val="1592790367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1592789407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592790367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1592790367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1592789407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>340178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8EC9F8-7D97-719B-FB4F-47B5CF1048D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,34 +2465,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +2504,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1462,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +2526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +2548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1506,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1517,14 +2570,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +2632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1601,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1612,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1623,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1634,14 +2687,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1663,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1674,14 +2727,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +2745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1714,7 +2767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1725,7 +2778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1736,7 +2789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1747,7 +2800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1758,7 +2811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1769,7 +2822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1795,22 +2848,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
-  <dimension ref="A2:J56"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +2878,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -1830,7 +2887,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +2898,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +2921,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>135</v>
@@ -1890,8 +2947,20 @@
       <c r="J6" s="22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="11" t="s">
         <v>74</v>
@@ -1918,8 +2987,19 @@
         <f>SUM(F6:F42)</f>
         <v>340</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>100</v>
+      </c>
+      <c r="M7" s="11">
+        <v>102</v>
+      </c>
+      <c r="N7" s="11">
+        <f>-P8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>137</v>
@@ -1943,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>110</v>
@@ -1966,9 +3046,23 @@
       <c r="H9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>152</v>
@@ -1991,8 +3085,27 @@
       <c r="H10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="11">
+        <f>J7</f>
+        <v>340</v>
+      </c>
+      <c r="K10" s="11">
+        <v>255</v>
+      </c>
+      <c r="L10" s="11">
+        <f>K10-L7</f>
+        <v>155</v>
+      </c>
+      <c r="M10" s="11">
+        <f>L10-M7</f>
+        <v>53</v>
+      </c>
+      <c r="N10" s="11">
+        <f>M10-N7</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>153</v>
@@ -2017,7 +3130,7 @@
       </c>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>99</v>
@@ -2041,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="11" t="s">
         <v>94</v>
@@ -2065,7 +3178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>97</v>
@@ -2089,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="11" t="s">
         <v>156</v>
@@ -2106,10 +3219,14 @@
       <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="11">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
         <v>154</v>
@@ -2126,10 +3243,14 @@
       <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="10">
+        <v>35</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
         <v>122</v>
@@ -2153,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="10" t="s">
         <v>157</v>
@@ -2170,10 +3291,14 @@
       <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="10">
+        <v>32</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="11" t="s">
         <v>91</v>
@@ -2197,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="10" t="s">
         <v>140</v>
@@ -2222,7 +3347,7 @@
       </c>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="11" t="s">
         <v>141</v>
@@ -2246,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="10" t="s">
         <v>105</v>
@@ -2270,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="11" t="s">
         <v>155</v>
@@ -2287,10 +3412,14 @@
       <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="11">
+        <v>33</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>168</v>
@@ -2314,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="11" t="s">
         <v>159</v>
@@ -2331,10 +3460,14 @@
       <c r="F25" s="11">
         <v>8</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="11">
+        <v>36</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>167</v>
@@ -2358,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="11" t="s">
         <v>158</v>
@@ -2375,10 +3508,14 @@
       <c r="F27" s="11">
         <v>8</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="11">
+        <v>34</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="10" t="s">
         <v>142</v>
@@ -2399,10 +3536,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="11" t="s">
         <v>88</v>
@@ -2423,10 +3560,10 @@
         <v>6</v>
       </c>
       <c r="H29" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="10" t="s">
         <v>70</v>
@@ -2450,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="11" t="s">
         <v>86</v>
@@ -2474,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="10" t="s">
         <v>144</v>
@@ -2495,10 +3632,10 @@
         <v>8</v>
       </c>
       <c r="H32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="11" t="s">
         <v>145</v>
@@ -2516,13 +3653,13 @@
         <v>13</v>
       </c>
       <c r="G33" s="11">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H33" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="10" t="s">
         <v>146</v>
@@ -2540,13 +3677,13 @@
         <v>13</v>
       </c>
       <c r="G34" s="10">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H34" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="11" t="s">
         <v>126</v>
@@ -2570,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="10" t="s">
         <v>102</v>
@@ -2594,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="11" t="s">
         <v>114</v>
@@ -2618,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="10" t="s">
         <v>150</v>
@@ -2642,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="11" t="s">
         <v>149</v>
@@ -2666,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="10" t="s">
         <v>143</v>
@@ -2690,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="11" t="s">
         <v>132</v>
@@ -2707,12 +3844,14 @@
       <c r="F41" s="11">
         <v>21</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <v>30</v>
+      </c>
       <c r="H41" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="10" t="s">
         <v>8</v>
@@ -2733,12 +3872,12 @@
         <v>24</v>
       </c>
       <c r="H42" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2747,8 +3886,8 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -2757,7 +3896,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -2766,8 +3905,8 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2776,7 +3915,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -2785,7 +3924,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -2794,7 +3933,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -2810,6 +3949,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2821,18 +3961,18 @@
       <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +3983,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -2852,7 +3992,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +4003,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2886,7 +4026,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>136</v>
       </c>
@@ -2917,7 +4057,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>136</v>
       </c>
@@ -2952,7 +4092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>136</v>
       </c>
@@ -2990,7 +4130,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>136</v>
       </c>
@@ -3016,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>136</v>
       </c>
@@ -3044,7 +4184,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>136</v>
       </c>
@@ -3070,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>136</v>
       </c>
@@ -3098,7 +4238,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>151</v>
       </c>
@@ -3124,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>136</v>
       </c>
@@ -3150,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>136</v>
       </c>
@@ -3176,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>136</v>
       </c>
@@ -3202,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>136</v>
       </c>
@@ -3228,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>136</v>
       </c>
@@ -3256,7 +4396,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>136</v>
       </c>
@@ -3282,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>136</v>
       </c>
@@ -3308,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>136</v>
       </c>
@@ -3334,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>136</v>
       </c>
@@ -3360,7 +4500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>136</v>
       </c>
@@ -3386,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>136</v>
       </c>
@@ -3412,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>136</v>
       </c>
@@ -3438,7 +4578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>136</v>
       </c>
@@ -3464,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>136</v>
       </c>
@@ -3490,7 +4630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>136</v>
       </c>
@@ -3516,7 +4656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>136</v>
       </c>
@@ -3542,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>136</v>
       </c>
@@ -3568,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>136</v>
       </c>
@@ -3594,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -3620,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>136</v>
       </c>
@@ -3646,7 +4786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>136</v>
       </c>
@@ -3672,7 +4812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>136</v>
       </c>
@@ -3696,9 +4836,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3707,8 +4847,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3717,7 +4857,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3726,8 +4866,8 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3736,7 +4876,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3745,7 +4885,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3754,7 +4894,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9443B867-5D67-4F23-A704-9DD6FCC6EC33}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCB12A4-C3AE-4F29-BBA0-1EB10268F77E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="180">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -560,6 +560,24 @@
   </si>
   <si>
     <t>Inicial</t>
+  </si>
+  <si>
+    <t>Menu Hamburguer</t>
+  </si>
+  <si>
+    <t>Sessão Acompanhar</t>
+  </si>
+  <si>
+    <t>Validação e lógica Acompanhar</t>
+  </si>
+  <si>
+    <t>Sessão Expandir</t>
+  </si>
+  <si>
+    <t>Validação e lógica Expandir</t>
+  </si>
+  <si>
+    <t>Menu para mudar de sessões no site do dashboard</t>
   </si>
 </sst>
 </file>
@@ -938,6 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,19 +1318,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>340</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,9 +2135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>208642</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:rowOff>290285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2145,10 +2163,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2465,34 +2479,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2518,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2570,14 +2584,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2588,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2610,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2643,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2665,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2687,14 +2701,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2716,7 +2730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2727,14 +2741,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -2756,7 +2770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -2800,7 +2814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2811,7 +2825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2850,55 +2864,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>135</v>
@@ -2947,20 +2961,20 @@
       <c r="J6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="11" t="s">
         <v>74</v>
@@ -2984,10 +2998,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="11">
-        <f>SUM(F6:F42)</f>
-        <v>340</v>
-      </c>
-      <c r="K7" s="11"/>
+        <f>SUM(F6:F47)</f>
+        <v>381</v>
+      </c>
+      <c r="K7" s="11">
+        <v>63</v>
+      </c>
       <c r="L7" s="11">
         <v>100</v>
       </c>
@@ -2995,11 +3011,10 @@
         <v>102</v>
       </c>
       <c r="N7" s="11">
-        <f>-P8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>137</v>
@@ -3023,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>110</v>
@@ -3049,20 +3064,20 @@
       <c r="J9" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>152</v>
@@ -3087,25 +3102,26 @@
       </c>
       <c r="J10" s="11">
         <f>J7</f>
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="K10" s="11">
-        <v>255</v>
+        <f>J10-K7</f>
+        <v>318</v>
       </c>
       <c r="L10" s="11">
         <f>K10-L7</f>
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="M10" s="11">
         <f>L10-M7</f>
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="N10" s="11">
         <f>M10-N7</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>153</v>
@@ -3130,7 +3146,7 @@
       </c>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>99</v>
@@ -3154,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="11" t="s">
         <v>94</v>
@@ -3178,88 +3194,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>39</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>27</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H15" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="11" t="s">
+    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="11">
-        <v>31</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G16" s="11">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>35</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>81</v>
@@ -3268,605 +3282,601 @@
         <v>5</v>
       </c>
       <c r="G17" s="11">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H17" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>42</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="11">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11">
+        <v>11</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G21" s="10">
         <v>32</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H21" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="11" t="s">
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F22" s="11">
         <v>8</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G22" s="11">
         <v>5</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H22" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="10" t="s">
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F23" s="10">
         <v>8</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G23" s="10">
         <v>10</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H23" s="10">
         <v>2</v>
       </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="11" t="s">
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F24" s="11">
         <v>8</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G24" s="11">
         <v>12</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H24" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="10" t="s">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F25" s="10">
         <v>8</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G25" s="10">
         <v>17</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H25" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="11" t="s">
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F26" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G26" s="11">
         <v>33</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H26" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="10" t="s">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F27" s="10">
         <v>8</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G27" s="10">
         <v>21</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H27" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="11" t="s">
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F28" s="11">
         <v>8</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G28" s="11">
         <v>36</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H28" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="10" t="s">
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F29" s="10">
         <v>8</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G29" s="10">
         <v>22</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H29" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="11" t="s">
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F30" s="11">
         <v>8</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G30" s="11">
         <v>34</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="10" t="s">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F31" s="10">
         <v>13</v>
       </c>
-      <c r="G28" s="10">
-        <v>7</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="11" t="s">
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F32" s="11">
         <v>13</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G32" s="11">
         <v>6</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="10" t="s">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F33" s="10">
         <v>13</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H33" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="11" t="s">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F34" s="11">
         <v>13</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G34" s="11">
         <v>25</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H34" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="10" t="s">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F35" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G35" s="10">
         <v>8</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H35" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="11" t="s">
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F36" s="11">
         <v>13</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G36" s="11">
         <v>37</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H36" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="10" t="s">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F37" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G37" s="10">
         <v>38</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H37" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="11" t="s">
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F38" s="11">
         <v>13</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G38" s="11">
         <v>13</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H38" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="10" t="s">
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F39" s="10">
         <v>13</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G39" s="10">
         <v>16</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H39" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="11" t="s">
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F40" s="11">
         <v>13</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G40" s="11">
         <v>14</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H40" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="10" t="s">
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F41" s="10">
         <v>13</v>
       </c>
-      <c r="G38" s="10">
-        <v>24</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="11">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
-        <v>20</v>
-      </c>
-      <c r="H39" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="10">
-        <v>13</v>
-      </c>
-      <c r="G40" s="10">
-        <v>23</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="G41" s="10">
+        <v>41</v>
+      </c>
+      <c r="H41" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="11">
-        <v>21</v>
-      </c>
-      <c r="G41" s="11">
-        <v>30</v>
-      </c>
-      <c r="H41" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="10" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F42" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G42" s="10">
         <v>24</v>
@@ -3875,38 +3885,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="11">
+        <v>13</v>
+      </c>
+      <c r="G43" s="11">
+        <v>20</v>
+      </c>
+      <c r="H43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="10">
+        <v>13</v>
+      </c>
+      <c r="G44" s="10">
+        <v>23</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="10">
+        <v>13</v>
+      </c>
+      <c r="G45" s="10">
+        <v>43</v>
+      </c>
+      <c r="H45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="11">
+        <v>21</v>
+      </c>
+      <c r="G46" s="11">
+        <v>30</v>
+      </c>
+      <c r="H46" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="10">
+        <v>21</v>
+      </c>
+      <c r="G47" s="10">
+        <v>24</v>
+      </c>
+      <c r="H47" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3915,7 +4014,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3924,7 +4023,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3933,7 +4032,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3961,49 +4060,49 @@
       <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -4026,7 +4125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>136</v>
       </c>
@@ -4051,13 +4150,13 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +4191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
         <v>136</v>
       </c>
@@ -4130,7 +4229,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>136</v>
       </c>
@@ -4156,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4283,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>136</v>
       </c>
@@ -4210,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>136</v>
       </c>
@@ -4238,7 +4337,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>151</v>
       </c>
@@ -4264,7 +4363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>136</v>
       </c>
@@ -4290,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>136</v>
       </c>
@@ -4316,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>136</v>
       </c>
@@ -4342,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>136</v>
       </c>
@@ -4368,7 +4467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>136</v>
       </c>
@@ -4396,7 +4495,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>136</v>
       </c>
@@ -4422,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>136</v>
       </c>
@@ -4448,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>136</v>
       </c>
@@ -4474,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>136</v>
       </c>
@@ -4500,7 +4599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>136</v>
       </c>
@@ -4526,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>136</v>
       </c>
@@ -4552,7 +4651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>136</v>
       </c>
@@ -4578,7 +4677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>136</v>
       </c>
@@ -4604,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>136</v>
       </c>
@@ -4630,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>136</v>
       </c>
@@ -4656,7 +4755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>136</v>
       </c>
@@ -4682,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>136</v>
       </c>
@@ -4708,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>136</v>
       </c>
@@ -4734,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -4760,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>136</v>
       </c>
@@ -4786,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>136</v>
       </c>
@@ -4812,7 +4911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>136</v>
       </c>
@@ -4836,9 +4935,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -4847,8 +4946,8 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -4857,7 +4956,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -4866,8 +4965,8 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -4876,7 +4975,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -4885,7 +4984,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -4894,7 +4993,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCB12A4-C3AE-4F29-BBA0-1EB10268F77E}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BAD6DC-56F0-4F97-B5D5-7E3E08521F26}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="181">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>Menu para mudar de sessões no site do dashboard</t>
+  </si>
+  <si>
+    <t>Sprint 2.5</t>
   </si>
 </sst>
 </file>
@@ -1290,9 +1293,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 2'!$J$9:$N$9</c:f>
+              <c:f>'Sprint 2'!$J$9:$O$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Inicial</c:v>
                 </c:pt>
@@ -1308,15 +1311,18 @@
                 <c:pt idx="4">
                   <c:v>Sprint 2.4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 2.5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$J$10:$N$10</c:f>
+              <c:f>'Sprint 2'!$J$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>381</c:v>
                 </c:pt>
@@ -1330,7 +1336,10 @@
                   <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,16 +2137,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419553</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>340178</xdr:rowOff>
+      <xdr:rowOff>276678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>208642</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>290285</xdr:rowOff>
+      <xdr:rowOff>226785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2163,6 +2172,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2862,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,9 +2892,10 @@
     <col min="12" max="12" width="17.26953125" customWidth="1"/>
     <col min="13" max="13" width="15.54296875" customWidth="1"/>
     <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2906,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -2901,7 +2915,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +2926,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>135</v>
@@ -2973,8 +2987,11 @@
       <c r="N6" s="24" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="11" t="s">
         <v>74</v>
@@ -3011,10 +3028,13 @@
         <v>102</v>
       </c>
       <c r="N7" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>137</v>
@@ -3038,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>110</v>
@@ -3076,8 +3096,11 @@
       <c r="N9" s="24" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>152</v>
@@ -3118,10 +3141,14 @@
       </c>
       <c r="N10" s="11">
         <f>M10-N7</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="O10" s="11">
+        <f>N10-O7</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>153</v>
@@ -3146,7 +3173,7 @@
       </c>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>99</v>
@@ -3170,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="11" t="s">
         <v>94</v>
@@ -3194,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="11" t="s">
         <v>174</v>
@@ -3218,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="10" t="s">
         <v>97</v>
@@ -3242,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="11" t="s">
         <v>175</v>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BAD6DC-56F0-4F97-B5D5-7E3E08521F26}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CA021F-AC37-4F43-BE8F-37AB857409FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="181">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -1327,19 +1327,19 @@
                   <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,15 +2138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419553</xdr:colOff>
+      <xdr:colOff>495752</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>276678</xdr:rowOff>
+      <xdr:rowOff>319011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>199571</xdr:colOff>
+      <xdr:colOff>275770</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>226785</xdr:rowOff>
+      <xdr:rowOff>269118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2877,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
   <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2950,7 +2950,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>135</v>
       </c>
@@ -2992,7 +2994,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>381</v>
       </c>
       <c r="K7" s="11">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="L7" s="11">
         <v>100</v>
@@ -3028,14 +3032,16 @@
         <v>102</v>
       </c>
       <c r="N7" s="11">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>137</v>
       </c>
@@ -3059,7 +3065,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B9" s="11" t="s">
         <v>110</v>
       </c>
@@ -3101,7 +3109,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="10" t="s">
         <v>152</v>
       </c>
@@ -3129,27 +3139,29 @@
       </c>
       <c r="K10" s="11">
         <f>J10-K7</f>
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="L10" s="11">
         <f>K10-L7</f>
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="M10" s="11">
         <f>L10-M7</f>
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="N10" s="11">
         <f>M10-N7</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="O10" s="11">
         <f>N10-O7</f>
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B11" s="11" t="s">
         <v>153</v>
       </c>
@@ -3174,7 +3186,9 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>99</v>
       </c>
@@ -3198,7 +3212,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B13" s="11" t="s">
         <v>94</v>
       </c>
@@ -3222,77 +3238,85 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>39</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="11">
         <v>27</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>40</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B17" s="11" t="s">
         <v>156</v>
       </c>
@@ -3316,580 +3340,620 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>42</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>5</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="11">
         <v>35</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>11</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>5</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="11">
         <v>32</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>8</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>5</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="11">
         <v>10</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="11">
         <v>2</v>
       </c>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>8</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>12</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="11">
         <v>8</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="11">
         <v>17</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>8</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>33</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>8</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="11">
         <v>21</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>8</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>36</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="11">
         <v>8</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="11">
         <v>22</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>8</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>34</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="11">
         <v>13</v>
       </c>
-      <c r="G31" s="10">
-        <v>7</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="G31" s="11">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>6</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="11">
         <v>13</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="11">
         <v>13</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="11">
         <v>8</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>13</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>37</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="11">
         <v>13</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="11">
         <v>38</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>13</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>13</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="11">
         <v>13</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="11">
         <v>16</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>13</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>14</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="11">
         <v>13</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="11">
         <v>41</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B42" s="10" t="s">
         <v>150</v>
       </c>
@@ -3913,7 +3977,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B43" s="11" t="s">
         <v>149</v>
       </c>
@@ -3937,7 +4003,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23" t="s">
+        <v>136</v>
+      </c>
       <c r="B44" s="10" t="s">
         <v>143</v>
       </c>
@@ -3961,72 +4029,76 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="11">
         <v>13</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="11">
         <v>43</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>21</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>30</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="11">
         <v>21</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="11">
         <v>24</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="11">
         <v>3</v>
       </c>
     </row>

--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CA021F-AC37-4F43-BE8F-37AB857409FF}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D6D20F-D905-414C-B483-BAC9C590BDB1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sprint 2 velho" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="164">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -241,9 +240,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>Tamanho(#)</t>
-  </si>
-  <si>
     <t>Prioridade</t>
   </si>
   <si>
@@ -271,39 +267,18 @@
     <t>PP</t>
   </si>
   <si>
-    <t>Requisitos gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitos do Site </t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Configurar os arquivos do projeto na plataforma GitHub para consulta de ambos os integrantes do projeto</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>Configurar ferramenta de gestão</t>
-  </si>
-  <si>
     <t>Configurar a plataforma Trello com todos os requisitos listados neste documento</t>
   </si>
   <si>
-    <t>Criação do banco de dados</t>
-  </si>
-  <si>
-    <t>Criar um banco de dados na ferramente MySQP para armazenar informações do cliente e dos sensores</t>
-  </si>
-  <si>
     <t>Modelagem do Banco de Dados</t>
   </si>
   <si>
-    <t xml:space="preserve">criar uma estrutura de informações que  serve de modelo para o comportamento de um banco de dados </t>
-  </si>
-  <si>
     <t>Criação do código Arduino</t>
   </si>
   <si>
@@ -316,18 +291,9 @@
     <t>Diagrama do projeto</t>
   </si>
   <si>
-    <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao cilente</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Diagrama de Solução (arquitetura tecnica do projeto)</t>
-  </si>
-  <si>
-    <t>Criar uma sequência visual que demonstra a arquitetura tecnica do projeto</t>
-  </si>
-  <si>
     <t xml:space="preserve">P </t>
   </si>
   <si>
@@ -337,9 +303,6 @@
     <t>Criar planilha que irá mostrar quais são os riscos do projeto</t>
   </si>
   <si>
-    <t>Especificação do Analytics/Metricas</t>
-  </si>
-  <si>
     <t>Especificar quais são os métodos utilizados e suas métricas</t>
   </si>
   <si>
@@ -361,9 +324,6 @@
     <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
   </si>
   <si>
-    <t xml:space="preserve">Validação e lógica do Login </t>
-  </si>
-  <si>
     <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
   </si>
   <si>
@@ -376,9 +336,6 @@
     <t>Recuperar uma senha esquecida</t>
   </si>
   <si>
-    <t xml:space="preserve">Validação e lógica da recuperação de senha </t>
-  </si>
-  <si>
     <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
   </si>
   <si>
@@ -394,15 +351,9 @@
     <t xml:space="preserve">G </t>
   </si>
   <si>
-    <t>Tratar os dados coletados e converte-los em um gráfico</t>
-  </si>
-  <si>
     <t>Conjunto de sessões localizada na parte superior do site</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão Início </t>
-  </si>
-  <si>
     <t>Informações sobre cada sessão do site institucional</t>
   </si>
   <si>
@@ -412,9 +363,6 @@
     <t>Informações detalhadas sobre a empresa e a equipe envolvida no projeto</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão Fale Conosco </t>
-  </si>
-  <si>
     <t>Serviços de atendimento ao cliente</t>
   </si>
   <si>
@@ -424,42 +372,21 @@
     <t xml:space="preserve">Coletar informações do nosso cliente </t>
   </si>
   <si>
-    <t>Validação e lógica do cadastro</t>
-  </si>
-  <si>
     <t>Coletar e validar as informações cadastrais e gravar no banco de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodapé </t>
-  </si>
-  <si>
-    <t>Responsividade do site</t>
-  </si>
-  <si>
     <t>Script de criação Banco de Dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar um script </t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
     <t>Cabeçalho Site Institucional</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Rodapé Site Institucional</t>
   </si>
   <si>
-    <t>Criar e configurar o GitHub</t>
-  </si>
-  <si>
-    <t>Sessão Login (institucional)</t>
-  </si>
-  <si>
     <t>Sessão Início</t>
   </si>
   <si>
@@ -493,9 +420,6 @@
     <t>Validação e lógica Cadastro</t>
   </si>
   <si>
-    <t>ik</t>
-  </si>
-  <si>
     <t>Criação e configuração do GitHub</t>
   </si>
   <si>
@@ -581,13 +505,37 @@
   </si>
   <si>
     <t>Sprint 2.5</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Criar um banco de dados na ferramenta MySQL para armazenar informações do cliente e dos sensores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criar uma estrutura de informações que serve de modelo para o comportamento de um banco de dados </t>
+  </si>
+  <si>
+    <t>Tratar os dados coletados e convertê-los em um gráfico</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução (arquitetura técnica do projeto)</t>
+  </si>
+  <si>
+    <t>Criar uma sequência visual que demonstra a arquitetura técnica do projeto</t>
+  </si>
+  <si>
+    <t>Especificação do Analytics/Métricas</t>
+  </si>
+  <si>
+    <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,13 +581,8 @@
       <name val="Bahnschrift SemiBold"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Bahnschrift SemiBold"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,14 +601,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -823,61 +760,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -890,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -923,21 +806,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -947,19 +815,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -987,15 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,10 +2027,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48EDCA0-1419-4C03-8F1F-E69B627A101C}" name="Tabela1" displayName="Tabela1" ref="B5:D36" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
@@ -2492,34 +2341,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="60.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -2531,7 +2380,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +2413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2575,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2597,14 +2446,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2626,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2637,7 +2486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2648,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2659,7 +2508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2681,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2692,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +2552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2714,14 +2563,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2732,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2754,14 +2603,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2772,7 +2621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -2783,7 +2632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -2794,7 +2643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -2805,7 +2654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2816,7 +2665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -2827,7 +2676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2838,7 +2687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -2849,7 +2698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2877,56 +2726,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
   <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2940,30 +2789,28 @@
         <v>66</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>136</v>
-      </c>
+    </row>
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
@@ -2974,40 +2821,38 @@
       <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
@@ -3038,21 +2883,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10">
         <v>3</v>
@@ -3064,21 +2907,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
@@ -3089,40 +2930,38 @@
       <c r="H9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>136</v>
-      </c>
+      <c r="J9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="10">
         <v>5</v>
@@ -3158,21 +2997,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -3183,23 +3020,21 @@
       <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>136</v>
-      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="10" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="10">
         <v>5</v>
@@ -3211,21 +3046,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F13" s="11">
         <v>5</v>
@@ -3237,21 +3070,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="10" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F14" s="10">
         <v>5</v>
@@ -3263,21 +3094,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -3289,19 +3118,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
       <c r="B16" s="10" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
@@ -3313,21 +3140,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -3339,19 +3164,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="10" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F18" s="10">
         <v>5</v>
@@ -3363,19 +3186,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" s="11">
         <v>5</v>
@@ -3387,21 +3210,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
       <c r="B20" s="10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F20" s="10">
         <v>5</v>
@@ -3413,21 +3234,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" s="11">
         <v>5</v>
@@ -3439,21 +3258,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -3465,21 +3282,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F23" s="11">
         <v>8</v>
@@ -3490,23 +3305,21 @@
       <c r="H23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>136</v>
-      </c>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
       <c r="B24" s="10" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F24" s="10">
         <v>8</v>
@@ -3518,21 +3331,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F25" s="11">
         <v>8</v>
@@ -3544,21 +3355,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
       <c r="B26" s="10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F26" s="10">
         <v>8</v>
@@ -3570,21 +3379,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F27" s="11">
         <v>8</v>
@@ -3596,19 +3403,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="10" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10">
         <v>8</v>
@@ -3620,21 +3427,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F29" s="11">
         <v>8</v>
@@ -3646,21 +3451,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
       <c r="B30" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F30" s="10">
         <v>8</v>
@@ -3672,21 +3475,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="11">
         <v>13</v>
@@ -3698,21 +3499,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
       <c r="B32" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="10">
         <v>13</v>
@@ -3724,21 +3523,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F33" s="11">
         <v>13</v>
@@ -3750,21 +3547,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
       <c r="B34" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="10">
         <v>13</v>
@@ -3776,21 +3571,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="11">
         <v>13</v>
@@ -3802,19 +3595,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
       <c r="B36" s="10" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="10">
         <v>13</v>
@@ -3826,19 +3619,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="B37" s="11" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="11">
         <v>13</v>
@@ -3850,19 +3643,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
       <c r="B38" s="10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="10">
         <v>13</v>
@@ -3874,21 +3667,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
       <c r="B39" s="11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="11">
         <v>13</v>
@@ -3900,21 +3691,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
       <c r="B40" s="10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F40" s="10">
         <v>13</v>
@@ -3926,19 +3715,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F41" s="11">
         <v>13</v>
@@ -3950,21 +3737,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
       <c r="B42" s="10" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="10">
         <v>13</v>
@@ -3976,21 +3761,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="11">
         <v>13</v>
@@ -4002,21 +3785,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F44" s="10">
         <v>13</v>
@@ -4028,19 +3809,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" s="11">
         <v>13</v>
@@ -4052,21 +3831,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
-        <v>136</v>
-      </c>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F46" s="10">
         <v>21</v>
@@ -4078,8 +3855,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
       <c r="B47" s="11" t="s">
         <v>8</v>
       </c>
@@ -4090,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F47" s="11">
         <v>21</v>
@@ -4102,43 +3879,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4149,965 +3926,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7DA6DA-76F6-4BBF-B420-7F89428DFE23}">
-  <dimension ref="A2:L54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="10">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="10">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(F6:F17)</f>
-        <v>109</v>
-      </c>
-      <c r="K8" s="15">
-        <f>SUM(F18:F34)</f>
-        <v>158</v>
-      </c>
-      <c r="L8" s="16">
-        <f>J8+K8</f>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="11">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="10">
-        <v>13</v>
-      </c>
-      <c r="G10" s="10">
-        <v>7</v>
-      </c>
-      <c r="H10" s="10">
-        <v>4</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="11">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>25</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="10">
-        <v>13</v>
-      </c>
-      <c r="G12" s="10">
-        <v>6</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="11">
-        <v>21</v>
-      </c>
-      <c r="G13" s="11">
-        <v>24</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="10">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11">
-        <v>26</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>27</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11">
-        <v>28</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="10">
-        <v>13</v>
-      </c>
-      <c r="G18" s="10">
-        <v>8</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="11">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
-        <v>16</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="10">
-        <v>13</v>
-      </c>
-      <c r="G20" s="10">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="11">
-        <v>8</v>
-      </c>
-      <c r="G21" s="11">
-        <v>17</v>
-      </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="10">
-        <v>8</v>
-      </c>
-      <c r="G22" s="10">
-        <v>21</v>
-      </c>
-      <c r="H22" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3</v>
-      </c>
-      <c r="G23" s="11">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="10">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10">
-        <v>22</v>
-      </c>
-      <c r="H24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="11">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
-        <v>14</v>
-      </c>
-      <c r="H25" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="10">
-        <v>13</v>
-      </c>
-      <c r="G26" s="10">
-        <v>23</v>
-      </c>
-      <c r="H26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="11">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11">
-        <v>9</v>
-      </c>
-      <c r="H27" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="10">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10">
-        <v>10</v>
-      </c>
-      <c r="H28" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="11">
-        <v>5</v>
-      </c>
-      <c r="G29" s="11">
-        <v>11</v>
-      </c>
-      <c r="H29" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="10">
-        <v>8</v>
-      </c>
-      <c r="G30" s="10">
-        <v>12</v>
-      </c>
-      <c r="H30" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="11">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="10">
-        <v>13</v>
-      </c>
-      <c r="G32" s="10">
-        <v>24</v>
-      </c>
-      <c r="H32" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="11">
-        <v>3</v>
-      </c>
-      <c r="G33" s="11">
-        <v>18</v>
-      </c>
-      <c r="H33" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="10">
-        <v>13</v>
-      </c>
-      <c r="G34" s="10">
-        <v>29</v>
-      </c>
-      <c r="H34" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="11">
-        <v>21</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-    </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="J6:L6"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/documentos/Backlog Requisitos.xlsx
+++ b/documentos/Backlog Requisitos.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Trabalhos\SPTech\1 semestre\PI\repos\sprint2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{454CC55A-C795-4187-9620-8411508DDD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D6D20F-D905-414C-B483-BAC9C590BDB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC87B620-E700-46C5-93BC-051419285E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="1">'Sprint 2'!$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
   <si>
     <t>Vaga Fácil</t>
   </si>
@@ -261,30 +264,18 @@
     <t>Nome e logo</t>
   </si>
   <si>
-    <t>Criar um nome e uma logo para a nossa empresa</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
-    <t>Configurar os arquivos do projeto na plataforma GitHub para consulta de ambos os integrantes do projeto</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Configurar a plataforma Trello com todos os requisitos listados neste documento</t>
-  </si>
-  <si>
     <t>Modelagem do Banco de Dados</t>
   </si>
   <si>
     <t>Criação do código Arduino</t>
   </si>
   <si>
-    <t>Criar um código onde será feita a captura de dados do sensor de bloqueio e inclui-los em um gráfico</t>
-  </si>
-  <si>
     <t>GG</t>
   </si>
   <si>
@@ -300,78 +291,33 @@
     <t>Planilha de Riscos do projeto</t>
   </si>
   <si>
-    <t>Criar planilha que irá mostrar quais são os riscos do projeto</t>
-  </si>
-  <si>
-    <t>Especificar quais são os métodos utilizados e suas métricas</t>
-  </si>
-  <si>
-    <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Cadastro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Calculadora </t>
   </si>
   <si>
-    <t>Realizar um cálculo de redução de gastos com base nas informações do cliente</t>
-  </si>
-  <si>
-    <t>Desenvolvimento da lógica e do código da calculadora</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Login </t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar o login do cliente através de um email e uma senha </t>
-  </si>
-  <si>
-    <t>Validação dos dados inseridos pelo usuário e retornar permissão.</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
     <t xml:space="preserve">Sessão Recuperação de senha </t>
   </si>
   <si>
-    <t>Recuperar uma senha esquecida</t>
-  </si>
-  <si>
-    <t>Recuperar a senha através do envio de um código e a criação de uma nova senha</t>
-  </si>
-  <si>
     <t>Sessão Dashboard</t>
   </si>
   <si>
-    <t>Local que irá aparecer os dados para o usuário em formato de gráfico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essencial </t>
   </si>
   <si>
     <t xml:space="preserve">G </t>
   </si>
   <si>
-    <t>Conjunto de sessões localizada na parte superior do site</t>
-  </si>
-  <si>
-    <t>Informações sobre cada sessão do site institucional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Sobre Nós </t>
   </si>
   <si>
-    <t>Informações detalhadas sobre a empresa e a equipe envolvida no projeto</t>
-  </si>
-  <si>
-    <t>Serviços de atendimento ao cliente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sessão Cadastro </t>
   </si>
   <si>
-    <t xml:space="preserve">Coletar informações do nosso cliente </t>
-  </si>
-  <si>
     <t>Coletar e validar as informações cadastrais e gravar no banco de dados</t>
   </si>
   <si>
@@ -408,12 +354,6 @@
     <t>Responsividade do Site Dashboard</t>
   </si>
   <si>
-    <t>Criar um script com os valores de cada coluna no Banco de Dados local</t>
-  </si>
-  <si>
-    <t>Adaptação das telas para diversos tamanhos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validação e lógica Calculadora </t>
   </si>
   <si>
@@ -444,27 +384,9 @@
     <t>Validação e lógica Perfil</t>
   </si>
   <si>
-    <t>Consultar informações sobre o usuário logado</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
-    <t>Confirmar se o sistema está exibir somente a informação do usuário logado</t>
-  </si>
-  <si>
-    <t>Consultar usuários que a pessoa cadastrou e é superior</t>
-  </si>
-  <si>
-    <t>Exibir somente os usuários criados pela pessoa logada</t>
-  </si>
-  <si>
-    <t>Adicionar um usuário no qual a pessoa é superior</t>
-  </si>
-  <si>
-    <t>Verificar e validar se os dados do novo usuário estão corretos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validação e lógica Recuperação de senha </t>
   </si>
   <si>
@@ -501,34 +423,133 @@
     <t>Validação e lógica Expandir</t>
   </si>
   <si>
-    <t>Menu para mudar de sessões no site do dashboard</t>
-  </si>
-  <si>
     <t>Sprint 2.5</t>
   </si>
   <si>
     <t>Fibonacci</t>
   </si>
   <si>
-    <t>Criar um banco de dados na ferramenta MySQL para armazenar informações do cliente e dos sensores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criar uma estrutura de informações que serve de modelo para o comportamento de um banco de dados </t>
-  </si>
-  <si>
-    <t>Tratar os dados coletados e convertê-los em um gráfico</t>
-  </si>
-  <si>
     <t>Diagrama de Solução (arquitetura técnica do projeto)</t>
   </si>
   <si>
-    <t>Criar uma sequência visual que demonstra a arquitetura técnica do projeto</t>
-  </si>
-  <si>
     <t>Especificação do Analytics/Métricas</t>
   </si>
   <si>
     <t>Criar um diagrama de visão de negócio sobre os nossos serviços ao cliente</t>
+  </si>
+  <si>
+    <t>Criação um nome e uma logo para o projeto.</t>
+  </si>
+  <si>
+    <t>Configurar os arquivos do projeto na plataforma GitHub para consulta dos integrantes do projeto e controle de versionamento.</t>
+  </si>
+  <si>
+    <t>Configurar a plataforma Trello com todos os requisitos listados neste documento.</t>
+  </si>
+  <si>
+    <t>Especificar quais são as métricas empregadas para análise dos dados captados.</t>
+  </si>
+  <si>
+    <t>Criar uma sequência visual que demonstra a arquitetura técnica do projeto.</t>
+  </si>
+  <si>
+    <t>Criar planilha que irá mostrar quais são os riscos do projeto, e medidas empregadas para minimizá-los.</t>
+  </si>
+  <si>
+    <t>Tela do Dashboard onde serão apresentadas todas as unidades cadastradas para o cliente atual. Exibição de tela de informações quando o usuário selecionar uma delas.</t>
+  </si>
+  <si>
+    <t>Informações detalhadas sobre a empresa Vaga Fácil e a equipe envolvida no projeto. Exibição de Missão, Visão e Valores da empresa.</t>
+  </si>
+  <si>
+    <t>Tela contendo Informações resumidas sobre cada sessão do site institucional.</t>
+  </si>
+  <si>
+    <t>Tela para realização do login do cliente através de um e-mail e uma senha. Links para Recuperação de Senha e Tela de Cadastro.</t>
+  </si>
+  <si>
+    <t>Consultar usuários que a pessoa cadastrou, e é superior aos mesmos. Presença de opção para excluir usuários.</t>
+  </si>
+  <si>
+    <t>Validação dos dados inseridos pelo usuário e inserção dos mesmos no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Confirmar se há um usuário logado, e exibir somente as informações do mesmo.</t>
+  </si>
+  <si>
+    <t>Recuperar a senha através do envio de um código ao e-mail inserido pelo usuário, e validação e inserção de nova senha.</t>
+  </si>
+  <si>
+    <t>Receber dados do banco para exibir somente os usuários criados pela pessoa logada.</t>
+  </si>
+  <si>
+    <t>Criar um banco de dados na ferramenta MySQL para armazenar informações dos clientes e dos sensores.</t>
+  </si>
+  <si>
+    <t>Criação de código que será inserido no Arduino, onde será feita a captura de dados do sensor e envio dos mesmos através de porta serial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar uma estrutura de informações que serve de modelo para o comportamento de um banco de dados </t>
+  </si>
+  <si>
+    <t>Criar o protótipo do site institucional das sessões: Início, Sobre Nós, Simulador, Login, Recuperação de senha, Dashboard e Cadastro.</t>
+  </si>
+  <si>
+    <t>Adaptação das telas para diversos tamanhos.</t>
+  </si>
+  <si>
+    <t>Obter dados do banco de dados para as filiais da empresa do cliente. Atribuição dos dados aos gráficos e KPIs construídos em ChartJS.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da lógica e do código da calculadora. Recuperar informações dos bairros inseridos pelo cliente e aplica-los ao lucro.</t>
+  </si>
+  <si>
+    <t>Tratar os dados provenientes do Banco de Dados e convertê-los em gráficos e KPIs.</t>
+  </si>
+  <si>
+    <t> Obter dados do banco de dados, contendo informações dos bairros e suas respectivas populações. Obter informações das ruas e seus respectivos sensores.</t>
+  </si>
+  <si>
+    <t>Script com as definições de Banco de Dados e Tabelas para funcionamento do sistema. Inserção de valores iniciais.</t>
+  </si>
+  <si>
+    <t>Criação de API NodeJS para receber os dados vindos do Arduino e então cadastrá-los no Banco de Dados.</t>
+  </si>
+  <si>
+    <t>Conjunto de atalhos localizada na parte superior do site. Contendo: Logo; Início; Sobre Nós; Calculadora; Fale Conosco; Login, para acesso ao Dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodapé contendo 3 sessôes: Logo; Links (mesmos links presentes no cabeçalho); Links para mídias sociais. </t>
+  </si>
+  <si>
+    <t>Tela para processo de recuperação de senha, contendo 3 etapas: Solicitação de email da conta; Input de código enviado ao email; Input de nova senha, em duplicata.</t>
+  </si>
+  <si>
+    <t>Menu para mudar de sessões no site do dashboard, contendo seguintes links: Dashboard; Acompanhar; Expandir; Perfil; Lista de usuários; Adicionar usuário; Site Institucional.</t>
+  </si>
+  <si>
+    <t>Tela para superiores adicionarem funcionários, para que os mesmos possam utilizar o sistema. Contendo campos: Nome; Sobrenome; Data de Nascimento; CPF; Telefone; E-mail; Senha (em duplicata).</t>
+  </si>
+  <si>
+    <t>Tela do Dashboard onde o usuário poderá buscar por novos locais para expandir o negócio. Dividido em três Telas: Tela para selecionar bairro (Zona de São Paulo; Faixa etária da população; Faixa de renda da população); Tela para selecionar rua (Faixa etária da população; Faixa de renda da população); Tela mostrando informações da rua (Tipo de dia (dia da semana, fim de semana, feriado); Dia da semana; Mês; Vaga específica).</t>
+  </si>
+  <si>
+    <t>Tela para consulta de informações sobre o usuário logado: Nome; Data de Nascimento; CPF Telefone; E-mail; Nome da Empresa; CEP e Endereço da Empresa; CNPJ da Empresa; Setor, Área e Cargo de atuação; Jornada de Trabalho. Conterá tela para alteração de nome e imagem de perfil.</t>
+  </si>
+  <si>
+    <t>Verificar e validar se os dados do novo usuário estão corretos. Validação de: Data de Nascimento; CPF; Telefone; E-mail; Senha.</t>
+  </si>
+  <si>
+    <t>Página de serviços de atendimento ao cliente, contendo informações de contato e formulário para envio de mensagens, solicitando: Nome; E-mail; Telefone; Mensagem.</t>
+  </si>
+  <si>
+    <t>Coletar informações do cliente para cadastro no Banco de Dados: Nome; Sobrenome; Data de Nascimento; CPF; Telefone; Razão Social da Empresa; CNPJ da Empresa; CEP da Empresa; Número da Empresa; Complemento da Empresa; E-mail; Senha (em duplicata).</t>
+  </si>
+  <si>
+    <t>Tela para clientes simularem possíveis ganhos que podem ter através da utilização de nossa ferramenta. Sessão informativa explicando o cálculo e campos de: Lucro atual; Bairro atual; Bairro novo. Sistema então retorna um novo lucro com base nestas informações.</t>
+  </si>
+  <si>
+    <t>Tela que irá exibir os dados para o usuário em forma de gráficos e KPIs. Filtros: Endereço; Tipo de dia (dia de semana, fim de semana, feriado); Dia da semana; Mês; Vaga específica.</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1014,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2039,7 +2060,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2726,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16856E6-9DCD-40AD-91F7-EC610FDB522F}">
   <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2810,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>67</v>
@@ -2801,16 +2822,16 @@
     <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
@@ -2825,19 +2846,19 @@
         <v>72</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,13 +2867,13 @@
         <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
@@ -2886,16 +2907,16 @@
     <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10">
         <v>3</v>
@@ -2910,16 +2931,16 @@
     <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
@@ -2931,37 +2952,37 @@
         <v>2</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="10">
         <v>5</v>
@@ -3000,16 +3021,16 @@
     <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="11">
         <v>5</v>
@@ -3025,16 +3046,16 @@
     <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="10" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="10">
         <v>5</v>
@@ -3049,16 +3070,16 @@
     <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="11">
         <v>5</v>
@@ -3073,16 +3094,16 @@
     <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="10" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="10">
         <v>5</v>
@@ -3097,16 +3118,16 @@
     <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="11">
         <v>5</v>
@@ -3121,14 +3142,16 @@
     <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="10">
         <v>5</v>
@@ -3140,19 +3163,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="11">
         <v>5</v>
@@ -3164,17 +3187,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" s="10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="10">
         <v>5</v>
@@ -3186,19 +3211,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="11">
         <v>5</v>
@@ -3213,16 +3238,16 @@
     <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="10">
         <v>5</v>
@@ -3237,16 +3262,16 @@
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="11">
         <v>5</v>
@@ -3261,16 +3286,16 @@
     <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F22" s="10">
         <v>8</v>
@@ -3285,16 +3310,16 @@
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F23" s="11">
         <v>8</v>
@@ -3310,16 +3335,16 @@
     <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="10" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F24" s="10">
         <v>8</v>
@@ -3334,16 +3359,16 @@
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F25" s="11">
         <v>8</v>
@@ -3358,16 +3383,16 @@
     <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F26" s="10">
         <v>8</v>
@@ -3382,16 +3407,16 @@
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F27" s="11">
         <v>8</v>
@@ -3406,16 +3431,16 @@
     <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F28" s="10">
         <v>8</v>
@@ -3430,16 +3455,16 @@
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29" s="11">
         <v>8</v>
@@ -3454,16 +3479,16 @@
     <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F30" s="10">
         <v>8</v>
@@ -3478,10 +3503,10 @@
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -3502,10 +3527,10 @@
     <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>7</v>
@@ -3550,10 +3575,10 @@
     <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>7</v>
@@ -3574,10 +3599,10 @@
     <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -3598,10 +3623,10 @@
     <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="10" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>59</v>
@@ -3622,10 +3647,10 @@
     <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="11" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>59</v>
@@ -3643,13 +3668,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
@@ -3667,13 +3692,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -3694,16 +3719,16 @@
     <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F40" s="10">
         <v>13</v>
@@ -3718,11 +3743,13 @@
     <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="D41" s="11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>71</v>
@@ -3740,10 +3767,10 @@
     <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>7</v>
@@ -3764,10 +3791,10 @@
     <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -3788,16 +3815,16 @@
     <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="10" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F44" s="10">
         <v>13</v>
@@ -3812,11 +3839,13 @@
     <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="D45" s="11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>71</v>
@@ -3834,16 +3863,16 @@
     <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="10" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F46" s="10">
         <v>21</v>
@@ -3861,13 +3890,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F47" s="11">
         <v>21</v>
